--- a/cls/results/cls_full.xlsx
+++ b/cls/results/cls_full.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\Machine Learning\Project\ml-course-project-f19\cls\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidha\OneDrive\Documents\ml-course-project-f19\ml-course-project-f19\cls\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3702B-0672-47E6-8EC7-C9FF38E635B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>Adult</t>
   </si>
@@ -66,12 +67,42 @@
   </si>
   <si>
     <t>NOAA Weather Bellevue</t>
+  </si>
+  <si>
+    <t>Credit Card Default</t>
+  </si>
+  <si>
+    <t>Seismic Bumps</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>Statlog Australian Credit</t>
+  </si>
+  <si>
+    <t>Statlog German Credit</t>
+  </si>
+  <si>
+    <t>Steel Plate fault</t>
+  </si>
+  <si>
+    <t>Yeast</t>
+  </si>
+  <si>
+    <t>Diabetic Retinopathy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,10 +142,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,53 +425,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L15" sqref="L15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -465,15 +498,21 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.86217062833978197</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.86217062833978197</v>
       </c>
       <c r="D3">
@@ -482,10 +521,10 @@
       <c r="E3">
         <v>0.23404255319148901</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.97368421052631504</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.97368421052631504</v>
       </c>
       <c r="H3">
@@ -494,8 +533,14 @@
       <c r="I3">
         <v>0.77973568281938299</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -523,8 +568,14 @@
       <c r="I4">
         <v>0.74063876651982297</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.73766699999999996</v>
+      </c>
+      <c r="K4">
+        <v>0.73766699999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -552,8 +603,14 @@
       <c r="I5">
         <v>0.72026431718061601</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.68633299999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.68633299999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -581,8 +638,14 @@
       <c r="I6">
         <v>0.76514317180616698</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.78933299999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.78933299999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -592,10 +655,10 @@
       <c r="C7">
         <v>0.85056200479085997</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.840425531914893</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.840425531914893</v>
       </c>
       <c r="F7">
@@ -610,8 +673,14 @@
       <c r="I7">
         <v>0.78248898678414103</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.81933299999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.81933299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -633,14 +702,20 @@
       <c r="G8">
         <v>0.96491228070175405</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.82020925110132104</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.82020925110132104</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.81850000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -668,8 +743,14 @@
       <c r="I9">
         <v>0.79157488986784097</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="K9">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -697,9 +778,404 @@
       <c r="I10">
         <v>0.80644273127753296</v>
       </c>
+      <c r="J10">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="K10">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.93616999999999995</v>
+      </c>
+      <c r="C16">
+        <v>0.93616999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.85507200000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.85507200000000005</v>
+      </c>
+      <c r="F16">
+        <v>0.7</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>0.85507200000000005</v>
+      </c>
+      <c r="I16">
+        <v>0.85507200000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.51671</v>
+      </c>
+      <c r="K16">
+        <v>0.51671</v>
+      </c>
+      <c r="L16">
+        <v>0.64935100000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.64935100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.87620900000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.87620900000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.80434799999999995</v>
+      </c>
+      <c r="E17">
+        <v>0.80434799999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.80434799999999995</v>
+      </c>
+      <c r="I17">
+        <v>0.80434799999999995</v>
+      </c>
+      <c r="J17">
+        <v>0.696658</v>
+      </c>
+      <c r="K17">
+        <v>0.696658</v>
+      </c>
+      <c r="L17">
+        <v>0.58874499999999996</v>
+      </c>
+      <c r="M17">
+        <v>0.58874499999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0.86266900000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.86266900000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.81159400000000004</v>
+      </c>
+      <c r="E18">
+        <v>0.81159400000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G18">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H18">
+        <v>0.81159400000000004</v>
+      </c>
+      <c r="I18">
+        <v>0.81159400000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.60925399999999996</v>
+      </c>
+      <c r="K18">
+        <v>0.60925399999999996</v>
+      </c>
+      <c r="L18">
+        <v>0.60606099999999996</v>
+      </c>
+      <c r="M18">
+        <v>0.60606099999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0.93036799999999997</v>
+      </c>
+      <c r="C19">
+        <v>0.93036799999999997</v>
+      </c>
+      <c r="D19">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G19">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J19">
+        <v>0.74036000000000002</v>
+      </c>
+      <c r="K19">
+        <v>0.74036000000000002</v>
+      </c>
+      <c r="L19">
+        <v>0.65368000000000004</v>
+      </c>
+      <c r="M19">
+        <v>0.65368000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0.94197299999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.94197299999999995</v>
+      </c>
+      <c r="D20">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="F20">
+        <v>0.71</v>
+      </c>
+      <c r="G20">
+        <v>0.71</v>
+      </c>
+      <c r="H20">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="I20">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="J20">
+        <v>0.69151700000000005</v>
+      </c>
+      <c r="K20">
+        <v>0.69151700000000005</v>
+      </c>
+      <c r="L20">
+        <v>0.70995699999999995</v>
+      </c>
+      <c r="M20">
+        <v>0.70995699999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.94390700000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.94390700000000005</v>
+      </c>
+      <c r="D21">
+        <v>0.86231899999999995</v>
+      </c>
+      <c r="E21">
+        <v>0.86231899999999995</v>
+      </c>
+      <c r="F21">
+        <v>0.71</v>
+      </c>
+      <c r="G21">
+        <v>0.71</v>
+      </c>
+      <c r="H21">
+        <v>0.86231899999999995</v>
+      </c>
+      <c r="I21">
+        <v>0.86231899999999995</v>
+      </c>
+      <c r="J21">
+        <v>0.77891999999999995</v>
+      </c>
+      <c r="K21">
+        <v>0.77891999999999995</v>
+      </c>
+      <c r="L21">
+        <v>0.72727299999999995</v>
+      </c>
+      <c r="M21">
+        <v>0.72727299999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>0.94777599999999995</v>
+      </c>
+      <c r="C22">
+        <v>0.94777599999999995</v>
+      </c>
+      <c r="D22">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="F22">
+        <v>0.67</v>
+      </c>
+      <c r="G22">
+        <v>0.67</v>
+      </c>
+      <c r="H22">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="I22">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="J22">
+        <v>0.73521899999999996</v>
+      </c>
+      <c r="K22">
+        <v>0.73521899999999996</v>
+      </c>
+      <c r="L22">
+        <v>0.63636400000000004</v>
+      </c>
+      <c r="M22">
+        <v>0.63636400000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.94777599999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.94777599999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.86956500000000003</v>
+      </c>
+      <c r="E23">
+        <v>0.86956500000000003</v>
+      </c>
+      <c r="F23">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="G23">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="H23">
+        <v>0.86956500000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.86956500000000003</v>
+      </c>
+      <c r="J23">
+        <v>0.74293100000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.74293100000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.66666700000000001</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A10">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="8">
